--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.780227889811</v>
+        <v>191.4772894899514</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.3582068178447</v>
+        <v>261.9876748618573</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.7134937461702</v>
+        <v>236.9839388751292</v>
       </c>
       <c r="AD2" t="n">
-        <v>142780.227889811</v>
+        <v>191477.2894899514</v>
       </c>
       <c r="AE2" t="n">
-        <v>195358.2068178447</v>
+        <v>261987.6748618573</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.300725800056264e-06</v>
+        <v>4.256945093316385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176713.4937461702</v>
+        <v>236983.9388751292</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.6288142912879</v>
+        <v>149.0450239317297</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.1037125458779</v>
+        <v>203.9299771456887</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.3962705064604</v>
+        <v>184.4671863444828</v>
       </c>
       <c r="AD3" t="n">
-        <v>112628.8142912879</v>
+        <v>149045.0239317297</v>
       </c>
       <c r="AE3" t="n">
-        <v>154103.7125458779</v>
+        <v>203929.9771456887</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.82289868449197e-06</v>
+        <v>5.223101641918171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>139396.2705064605</v>
+        <v>184467.1863444828</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.5570850284896</v>
+        <v>130.9483757643966</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.7961047027314</v>
+        <v>179.1693447553849</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.8815290960604</v>
+        <v>162.0696739577359</v>
       </c>
       <c r="AD4" t="n">
-        <v>106557.0850284896</v>
+        <v>130948.3757643967</v>
       </c>
       <c r="AE4" t="n">
-        <v>145796.1047027314</v>
+        <v>179169.3447553849</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.018290451315594e-06</v>
+        <v>5.584627566925794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>131881.5290960604</v>
+        <v>162069.6739577359</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.33153840350867</v>
+        <v>128.8329993899711</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.3320842236181</v>
+        <v>176.2749934760781</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.2751274135431</v>
+        <v>159.4515555022776</v>
       </c>
       <c r="AD5" t="n">
-        <v>92331.53840350868</v>
+        <v>128832.9993899711</v>
       </c>
       <c r="AE5" t="n">
-        <v>126332.084223618</v>
+        <v>176274.9934760781</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.059511555151518e-06</v>
+        <v>5.66089740130203e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>114275.1274135431</v>
+        <v>159451.5555022776</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.1384420094414</v>
+        <v>149.4295784075926</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.169251789929</v>
+        <v>204.4561415449102</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.2646775840625</v>
+        <v>184.9431343519192</v>
       </c>
       <c r="AD2" t="n">
-        <v>114138.4420094414</v>
+        <v>149429.5784075926</v>
       </c>
       <c r="AE2" t="n">
-        <v>156169.251789929</v>
+        <v>204456.1415449102</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.656787127098317e-06</v>
+        <v>5.064246292579356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.91796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>141264.6775840625</v>
+        <v>184943.1343519191</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.3821229452956</v>
+        <v>124.9096367192808</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.7154932772946</v>
+        <v>170.9068755834972</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.4766812873645</v>
+        <v>154.5957632471621</v>
       </c>
       <c r="AD3" t="n">
-        <v>101382.1229452956</v>
+        <v>124909.6367192808</v>
       </c>
       <c r="AE3" t="n">
-        <v>138715.4932772946</v>
+        <v>170906.8755834972</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.129140253396143e-06</v>
+        <v>5.964624250693993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>125476.6812873645</v>
+        <v>154595.7632471621</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.78762333113323</v>
+        <v>121.9934188747128</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.7466550413264</v>
+        <v>166.91677767411</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.4136409461902</v>
+        <v>150.986474682108</v>
       </c>
       <c r="AD4" t="n">
-        <v>86787.62333113323</v>
+        <v>121993.4188747128</v>
       </c>
       <c r="AE4" t="n">
-        <v>118746.6550413264</v>
+        <v>166916.77767411</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.235336401512789e-06</v>
+        <v>6.167050498510584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>107413.6409461902</v>
+        <v>150986.474682108</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.2738376614771</v>
+        <v>104.5788242804777</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2564973019651</v>
+        <v>143.0893610725983</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.6881579103683</v>
+        <v>129.4331132790477</v>
       </c>
       <c r="AD2" t="n">
-        <v>73273.8376614771</v>
+        <v>104578.8242804777</v>
       </c>
       <c r="AE2" t="n">
-        <v>100256.4973019651</v>
+        <v>143089.3610725983</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622719982085635e-06</v>
+        <v>7.715445485393056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>90688.1579103683</v>
+        <v>129433.1132790477</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.23206092580982</v>
+        <v>114.1757425267612</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.1959747499939</v>
+        <v>156.2202880033087</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.1520080370508</v>
+        <v>141.3108429728671</v>
       </c>
       <c r="AD2" t="n">
-        <v>92232.06092580981</v>
+        <v>114175.7425267612</v>
       </c>
       <c r="AE2" t="n">
-        <v>126195.9747499939</v>
+        <v>156220.2880033087</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.341447406798156e-06</v>
+        <v>6.784293479966546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>114152.0080370508</v>
+        <v>141310.842972867</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.24268796566184</v>
+        <v>111.0727352496908</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.0550974983516</v>
+        <v>151.9746165518036</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.83790924590913</v>
+        <v>137.4703724458549</v>
       </c>
       <c r="AD3" t="n">
-        <v>78242.68796566184</v>
+        <v>111072.7352496908</v>
       </c>
       <c r="AE3" t="n">
-        <v>107055.0974983516</v>
+        <v>151974.6165518036</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49682759817204e-06</v>
+        <v>7.099768988307375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>96837.90924590913</v>
+        <v>137470.3724458549</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.64004138340498</v>
+        <v>99.69416541981342</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.28457692253177</v>
+        <v>136.4059553235007</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.19075063381243</v>
+        <v>123.387562394423</v>
       </c>
       <c r="AD2" t="n">
-        <v>69640.04138340498</v>
+        <v>99694.16541981342</v>
       </c>
       <c r="AE2" t="n">
-        <v>95284.57692253176</v>
+        <v>136405.9553235007</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.67384765625303e-06</v>
+        <v>8.180941139704887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>86190.75063381242</v>
+        <v>123387.562394423</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.7708981972797</v>
+        <v>165.3173378340341</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.5582680014122</v>
+        <v>226.1944749106342</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.6123561080014</v>
+        <v>204.6067916911678</v>
       </c>
       <c r="AD2" t="n">
-        <v>129770.8981972797</v>
+        <v>165317.3378340341</v>
       </c>
       <c r="AE2" t="n">
-        <v>177558.2680014122</v>
+        <v>226194.4749106342</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567617635391869e-06</v>
+        <v>4.854758139914202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>160612.3561080014</v>
+        <v>204606.7916911678</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.201599290245</v>
+        <v>127.9561494539794</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.5732251989701</v>
+        <v>175.075248709766</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.9662366887972</v>
+        <v>158.3663126926096</v>
       </c>
       <c r="AD3" t="n">
-        <v>104201.599290245</v>
+        <v>127956.1494539795</v>
       </c>
       <c r="AE3" t="n">
-        <v>142573.2251989701</v>
+        <v>175075.248709766</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.053746604561999e-06</v>
+        <v>5.773913133086151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>128966.2366887972</v>
+        <v>158366.3126926096</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.01605276328117</v>
+        <v>123.5624028914846</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.427446384872</v>
+        <v>169.0635308245457</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.9340199229138</v>
+        <v>152.9283447248537</v>
       </c>
       <c r="AD4" t="n">
-        <v>88016.05276328117</v>
+        <v>123562.4028914846</v>
       </c>
       <c r="AE4" t="n">
-        <v>120427.446384872</v>
+        <v>169063.5308245457</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.200099780808345e-06</v>
+        <v>6.050632401520294e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>108934.0199229139</v>
+        <v>152928.3447248537</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.16728371489303</v>
+        <v>123.7136338430964</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.634367244706</v>
+        <v>169.2704516843796</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.1211925463006</v>
+        <v>153.1155173482404</v>
       </c>
       <c r="AD5" t="n">
-        <v>88167.28371489303</v>
+        <v>123713.6338430964</v>
       </c>
       <c r="AE5" t="n">
-        <v>120634.367244706</v>
+        <v>169270.4516843796</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.198783655122677e-06</v>
+        <v>6.048143918890492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>109121.1925463006</v>
+        <v>153115.5173482404</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.75589909864048</v>
+        <v>97.35516657678882</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.3890514948842</v>
+        <v>133.2056339171298</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.235429738211</v>
+        <v>120.4926751713959</v>
       </c>
       <c r="AD2" t="n">
-        <v>77755.89909864048</v>
+        <v>97355.16657678882</v>
       </c>
       <c r="AE2" t="n">
-        <v>106389.0514948842</v>
+        <v>133205.6339171298</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.631565835124138e-06</v>
+        <v>8.32560707744784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.13671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>96235.42973821099</v>
+        <v>120492.6751713959</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.1064847775632</v>
+        <v>137.1217645769416</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.0748412096771</v>
+        <v>187.6160476793975</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.6108563644467</v>
+        <v>169.7102354097053</v>
       </c>
       <c r="AD2" t="n">
-        <v>103106.4847775632</v>
+        <v>137121.7645769416</v>
       </c>
       <c r="AE2" t="n">
-        <v>141074.8412096771</v>
+        <v>187616.0476793975</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.966518152960193e-06</v>
+        <v>5.814334582716357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127610.8563644467</v>
+        <v>169710.2354097053</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.46978055246581</v>
+        <v>116.5703116978647</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8387920617773</v>
+        <v>159.4966431841469</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.0696161176696</v>
+        <v>144.2745074136404</v>
       </c>
       <c r="AD3" t="n">
-        <v>82469.7805524658</v>
+        <v>116570.3116978647</v>
       </c>
       <c r="AE3" t="n">
-        <v>112838.7920617773</v>
+        <v>159496.6431841469</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.372433150181774e-06</v>
+        <v>6.609922367552111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>102069.6161176696</v>
+        <v>144274.5074136404</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.62579535889331</v>
+        <v>116.7263265042922</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.0522584028188</v>
+        <v>159.7101095251884</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.2627095307241</v>
+        <v>144.4676008266949</v>
       </c>
       <c r="AD4" t="n">
-        <v>82625.79535889332</v>
+        <v>116726.3265042922</v>
       </c>
       <c r="AE4" t="n">
-        <v>113052.2584028188</v>
+        <v>159710.1095251884</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.37193558337959e-06</v>
+        <v>6.60894714349617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.8046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>102262.7095307241</v>
+        <v>144467.6008266949</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.5072318638613</v>
+        <v>145.4448636618746</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.2008698710634</v>
+        <v>199.0040790366139</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.7704710623641</v>
+        <v>180.0114090373951</v>
       </c>
       <c r="AD2" t="n">
-        <v>110507.2318638614</v>
+        <v>145444.8636618746</v>
       </c>
       <c r="AE2" t="n">
-        <v>151200.8698710634</v>
+        <v>199004.0790366139</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749665263990666e-06</v>
+        <v>5.28678987544755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>136770.4710623641</v>
+        <v>180011.4090373951</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.67778980041226</v>
+        <v>121.5300807438539</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.5963759590806</v>
+        <v>166.2828180024334</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.2777042886359</v>
+        <v>150.413019231728</v>
       </c>
       <c r="AD3" t="n">
-        <v>86677.78980041225</v>
+        <v>121530.0807438539</v>
       </c>
       <c r="AE3" t="n">
-        <v>118596.3759590806</v>
+        <v>166282.8180024334</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.230136989197619e-06</v>
+        <v>6.210594341950628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>107277.7042886359</v>
+        <v>150413.019231728</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.58802605221759</v>
+        <v>120.4403169956592</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.1053131218179</v>
+        <v>164.7917551651707</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.9289463958413</v>
+        <v>149.0642613389334</v>
       </c>
       <c r="AD4" t="n">
-        <v>85588.02605221758</v>
+        <v>120440.3169956592</v>
       </c>
       <c r="AE4" t="n">
-        <v>117105.3131218179</v>
+        <v>164791.7551651707</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.272039018299682e-06</v>
+        <v>6.291159502415281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>105928.9463958413</v>
+        <v>149064.2613389334</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.2741686569962</v>
+        <v>174.4674836290837</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.1928177822073</v>
+        <v>238.7141080633572</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.1365207869142</v>
+        <v>215.9315686272144</v>
       </c>
       <c r="AD2" t="n">
-        <v>138274.1686569962</v>
+        <v>174467.4836290838</v>
       </c>
       <c r="AE2" t="n">
-        <v>189192.8177822073</v>
+        <v>238714.1080633572</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385067152452197e-06</v>
+        <v>4.443199206203367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.419270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>171136.5207869142</v>
+        <v>215931.5686272144</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.8763752324375</v>
+        <v>145.9843493499534</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.3377039965195</v>
+        <v>199.7422271554717</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.9896845274254</v>
+        <v>180.6791093357867</v>
       </c>
       <c r="AD3" t="n">
-        <v>109876.3752324375</v>
+        <v>145984.3493499534</v>
       </c>
       <c r="AE3" t="n">
-        <v>150337.7039965194</v>
+        <v>199742.2271554717</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.89369764541085e-06</v>
+        <v>5.390739236781188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.292968750000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>135989.6845274254</v>
+        <v>180679.1093357867</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.78857005814668</v>
+        <v>127.9817955216832</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.5891709794213</v>
+        <v>175.1103387910229</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.603116766687</v>
+        <v>158.3980538257606</v>
       </c>
       <c r="AD4" t="n">
-        <v>91788.57005814668</v>
+        <v>127981.7955216832</v>
       </c>
       <c r="AE4" t="n">
-        <v>125589.1709794213</v>
+        <v>175110.3387910229</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.09027493140722e-06</v>
+        <v>5.756947810908198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>113603.116766687</v>
+        <v>158398.0538257606</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.109721935865</v>
+        <v>127.3029473994015</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.6603410298505</v>
+        <v>174.1815088414521</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.7629330438819</v>
+        <v>157.5578701029555</v>
       </c>
       <c r="AD5" t="n">
-        <v>91109.721935865</v>
+        <v>127302.9473994015</v>
       </c>
       <c r="AE5" t="n">
-        <v>124660.3410298505</v>
+        <v>174181.5088414521</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.111732559752965e-06</v>
+        <v>5.796921745031937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>112762.9330438819</v>
+        <v>157557.8701029555</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.96303920525288</v>
+        <v>118.2040956920217</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.3008638310702</v>
+        <v>161.7320585224142</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.7696936689876</v>
+        <v>146.2965778494494</v>
       </c>
       <c r="AD2" t="n">
-        <v>95963.03920525288</v>
+        <v>118204.0956920217</v>
       </c>
       <c r="AE2" t="n">
-        <v>131300.8638310702</v>
+        <v>161732.0585224142</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.204430612180089e-06</v>
+        <v>6.423272686281811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118769.6936689876</v>
+        <v>146296.5778494494</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.58416717062407</v>
+        <v>112.8602767833791</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.8905685284657</v>
+        <v>154.4204097389615</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.49820549700947</v>
+        <v>139.6827425639235</v>
       </c>
       <c r="AD3" t="n">
-        <v>79584.16717062407</v>
+        <v>112860.2767833791</v>
       </c>
       <c r="AE3" t="n">
-        <v>108890.5685284657</v>
+        <v>154420.4097389615</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.453827008600358e-06</v>
+        <v>6.923187103243884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98498.20549700946</v>
+        <v>139682.7425639235</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.15159793754592</v>
+        <v>107.00200410359</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.8257317526179</v>
+        <v>146.4048626097278</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.01218823099479</v>
+        <v>132.4321880028103</v>
       </c>
       <c r="AD2" t="n">
-        <v>75151.59793754591</v>
+        <v>107002.00410359</v>
       </c>
       <c r="AE2" t="n">
-        <v>102825.7317526179</v>
+        <v>146404.8626097278</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573243510954458e-06</v>
+        <v>7.475448888122608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93012.1882309948</v>
+        <v>132432.1880028103</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.2586784848563</v>
+        <v>107.1090846509004</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.9722440815083</v>
+        <v>146.5513749386181</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.14471762884727</v>
+        <v>132.5647174006627</v>
       </c>
       <c r="AD3" t="n">
-        <v>75258.67848485631</v>
+        <v>107109.0846509004</v>
       </c>
       <c r="AE3" t="n">
-        <v>102972.2440815083</v>
+        <v>146551.3749386181</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.572156419373873e-06</v>
+        <v>7.473174624551582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93144.71762884727</v>
+        <v>132564.7174006627</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.5746211755164</v>
+        <v>102.2854359296263</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.93155434173418</v>
+        <v>139.9514459538117</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.58510424318312</v>
+        <v>126.5946763751056</v>
       </c>
       <c r="AD2" t="n">
-        <v>71574.6211755164</v>
+        <v>102285.4359296263</v>
       </c>
       <c r="AE2" t="n">
-        <v>97931.55434173418</v>
+        <v>139951.4459538117</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.651374049036879e-06</v>
+        <v>7.937560544404291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88585.10424318313</v>
+        <v>126594.6763751056</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.32681287152114</v>
+        <v>103.6933526940503</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.06546855522</v>
+        <v>141.8778197837995</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.22904488962938</v>
+        <v>128.3371997904426</v>
       </c>
       <c r="AD2" t="n">
-        <v>75326.81287152114</v>
+        <v>103693.3526940503</v>
       </c>
       <c r="AE2" t="n">
-        <v>103065.46855522</v>
+        <v>141877.8197837995</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.551939324894084e-06</v>
+        <v>8.448383457058496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.397135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93229.04488962938</v>
+        <v>128337.1997904426</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.3296624170091</v>
+        <v>140.8994313204694</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.4849350525265</v>
+        <v>192.7848179767842</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.6000570405416</v>
+        <v>174.3857055243258</v>
       </c>
       <c r="AD2" t="n">
-        <v>106329.6624170092</v>
+        <v>140899.4313204694</v>
       </c>
       <c r="AE2" t="n">
-        <v>145484.9350525265</v>
+        <v>192784.8179767842</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.870101390774381e-06</v>
+        <v>5.569656176342558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>131600.0570405416</v>
+        <v>174385.7055243258</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.56241916808646</v>
+        <v>119.0468472169751</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.7020325363681</v>
+        <v>162.8851483384282</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.6595929399496</v>
+        <v>147.3396183917951</v>
       </c>
       <c r="AD3" t="n">
-        <v>84562.41916808646</v>
+        <v>119046.8472169751</v>
       </c>
       <c r="AE3" t="n">
-        <v>115702.0325363681</v>
+        <v>162885.1483384282</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293772473583065e-06</v>
+        <v>6.391823041488201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>104659.5929399496</v>
+        <v>147339.6183917951</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.30626145079556</v>
+        <v>118.7906894996842</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.3515462466899</v>
+        <v>162.53466204875</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.3425565698477</v>
+        <v>147.0225820216931</v>
       </c>
       <c r="AD4" t="n">
-        <v>84306.26145079556</v>
+        <v>118790.6894996842</v>
       </c>
       <c r="AE4" t="n">
-        <v>115351.5462466899</v>
+        <v>162534.66204875</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.312606129132408e-06</v>
+        <v>6.428371222779179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.837239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>104342.5565698477</v>
+        <v>147022.5820216931</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.0463615716423</v>
+        <v>169.9216023379946</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.4081456103441</v>
+        <v>232.4942327307638</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.9039296082935</v>
+        <v>210.3053094667118</v>
       </c>
       <c r="AD2" t="n">
-        <v>134046.3615716423</v>
+        <v>169921.6023379946</v>
       </c>
       <c r="AE2" t="n">
-        <v>183408.1456103441</v>
+        <v>232494.2327307638</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.469292104769977e-06</v>
+        <v>4.633360517124658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.256510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165903.9296082935</v>
+        <v>210305.3094667118</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.8992913993589</v>
+        <v>130.8730423161585</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.2643265564341</v>
+        <v>179.0662702080284</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.3050645131994</v>
+        <v>161.976436700513</v>
       </c>
       <c r="AD3" t="n">
-        <v>106899.2913993589</v>
+        <v>130873.0423161585</v>
       </c>
       <c r="AE3" t="n">
-        <v>146264.3265564341</v>
+        <v>179066.2702080284</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975605522649604e-06</v>
+        <v>5.583403079996105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.188802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>132305.0645131994</v>
+        <v>161976.436700513</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.95280966418439</v>
+        <v>125.8279609219857</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.0774026203706</v>
+        <v>172.1633672712419</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.3310680545343</v>
+        <v>155.7323371317261</v>
       </c>
       <c r="AD4" t="n">
-        <v>89952.80966418439</v>
+        <v>125827.9609219857</v>
       </c>
       <c r="AE4" t="n">
-        <v>123077.4026203706</v>
+        <v>172163.3672712419</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.141648424521007e-06</v>
+        <v>5.894964690788778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>111331.0680545343</v>
+        <v>155732.3371317261</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.84185495641711</v>
+        <v>125.7170062142184</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.9255894942273</v>
+        <v>172.0115541450986</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.1937437600789</v>
+        <v>155.5950128372707</v>
       </c>
       <c r="AD5" t="n">
-        <v>89841.85495641711</v>
+        <v>125717.0062142184</v>
       </c>
       <c r="AE5" t="n">
-        <v>122925.5894942273</v>
+        <v>172011.5541450986</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.141648424521007e-06</v>
+        <v>5.894964690788778e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>111193.7437600789</v>
+        <v>155595.0128372707</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.15430026601554</v>
+        <v>109.5496278096948</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4071380158483</v>
+        <v>149.8906337576442</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6791585280537</v>
+        <v>135.5852820446812</v>
       </c>
       <c r="AD2" t="n">
-        <v>82154.30026601553</v>
+        <v>109549.6278096948</v>
       </c>
       <c r="AE2" t="n">
-        <v>112407.1380158483</v>
+        <v>149890.6337576442</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.268065804218516e-06</v>
+        <v>8.173184564367173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>101679.1585280537</v>
+        <v>135585.2820446812</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.8062917606175</v>
+        <v>110.1627918290742</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.4580009581684</v>
+        <v>150.7295918198461</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.29779876149058</v>
+        <v>136.3441711269118</v>
       </c>
       <c r="AD2" t="n">
-        <v>77806.2917606175</v>
+        <v>110162.7918290742</v>
       </c>
       <c r="AE2" t="n">
-        <v>106458.0009581684</v>
+        <v>150729.5918198461</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.468956879859028e-06</v>
+        <v>7.143565519622371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>96297.79876149059</v>
+        <v>136344.1711269119</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.67155339564832</v>
+        <v>109.028053464105</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.9054018660948</v>
+        <v>149.1769927277725</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.8933775476775</v>
+        <v>134.9397499130988</v>
       </c>
       <c r="AD3" t="n">
-        <v>76671.55339564831</v>
+        <v>109028.053464105</v>
       </c>
       <c r="AE3" t="n">
-        <v>104905.4018660948</v>
+        <v>149176.9927277725</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.543317051587749e-06</v>
+        <v>7.296694191206228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>94893.3775476775</v>
+        <v>134939.7499130988</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.72043499524311</v>
+        <v>133.3337647809711</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4418985155355</v>
+        <v>182.4331392437967</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4200752186566</v>
+        <v>165.021976480939</v>
       </c>
       <c r="AD2" t="n">
-        <v>99720.43499524311</v>
+        <v>133333.7647809711</v>
       </c>
       <c r="AE2" t="n">
-        <v>136441.8985155355</v>
+        <v>182433.1392437967</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06974083043636e-06</v>
+        <v>6.081721760551539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.332031249999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>123420.0752186566</v>
+        <v>165021.976480939</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.12982887543913</v>
+        <v>114.8284100071877</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.0054110627744</v>
+        <v>157.1132964436848</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.4112104280446</v>
+        <v>142.1186239410392</v>
       </c>
       <c r="AD3" t="n">
-        <v>81129.82887543913</v>
+        <v>114828.4100071877</v>
       </c>
       <c r="AE3" t="n">
-        <v>111005.4110627744</v>
+        <v>157113.2964436848</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.418020448541674e-06</v>
+        <v>6.771727806399576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100411.2104280446</v>
+        <v>142118.6239410392</v>
       </c>
     </row>
   </sheetData>
